--- a/PChemLab/5 - Thiocyanate/Data.xlsx
+++ b/PChemLab/5 - Thiocyanate/Data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B693861A-FBD7-427F-932A-003E389845CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\repos\Courses-Fall2022\PChemLab\5 - Thiocyanate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01121B68-C0B8-4333-B930-901B07D9D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="3660" windowWidth="17100" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,36 +30,274 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
-    <t>SCN-</t>
+    <t>Gibbs Energy of rxn</t>
   </si>
   <si>
-    <t>K+</t>
+    <t>T</t>
   </si>
   <si>
-    <t>Fe3+</t>
+    <t>R</t>
   </si>
   <si>
-    <t>NO3-</t>
+    <t>Ka</t>
   </si>
   <si>
-    <t>Fe[SCN]2+</t>
+    <t>Kγ</t>
   </si>
   <si>
-    <t>H+</t>
+    <t>[SCN-]</t>
   </si>
   <si>
-    <t>V</t>
+    <t>[K+]</t>
+  </si>
+  <si>
+    <t>[Fe3+]</t>
+  </si>
+  <si>
+    <t>[NO3-]</t>
+  </si>
+  <si>
+    <t>[H+]</t>
+  </si>
+  <si>
+    <t>[FeSCN2+]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>Kc=</t>
+  </si>
+  <si>
+    <t>Kc calculation</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <r>
+      <t>γ for z=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ for z=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ for z=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cs/A</t>
+    </r>
+  </si>
+  <si>
+    <t>A (mol/cm/L)</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (M)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (M)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (L)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fe(NO3)3 added(L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,8 +324,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +344,2200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2829542869641295"/>
+                  <c:y val="-3.6315616797900262E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1881188118811881E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1568627450980391E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1067961165048546E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0384615384615385E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.952380952380952E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8490566037735841E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7289719626168224E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5925925925925918E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4403669724770654E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2727272727272745E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.054081773555829E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4333386866784437E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3664139611919798E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3773742941287725E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9957245747050653E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9999840000639986E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7766180452441262E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2866941015089157E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4428855949554492E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4579342300909441E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09DD-4502-B736-20F425A74C05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="670559120"/>
+        <c:axId val="670559536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="670559120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cf + Cs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670559536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="670559536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Cf×Cs/A</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670559120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24764685447174814"/>
+                  <c:y val="-2.6006853310002916E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5168339999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51617973362358471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51555853327994572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51496274848155832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51438767477457081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51383021853199284</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51328822962171206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51276014207459519</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51224476866063284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51174117751519199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51124861490717122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.2339494908391297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2342373008270084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2345094663455609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2347694884385789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2350195329019309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2352610350790059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.235495001923502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2357221745861993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.235943121356271</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2361582934942614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2363680602049247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40D7-490F-B713-CDDC7DEB4BED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="480156624"/>
+        <c:axId val="480160368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="480156624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ionic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Strength</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480160368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="480160368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.2370000000000001"/>
+          <c:min val="2.2333000000000003"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>γ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="480156624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>348156</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66028E2B-2B8C-74D2-EB18-0D4E37634F0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203639</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>499243</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4DBC3D-9225-7F0A-6AC1-96401C31834F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,152 +2837,976 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H13"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <f>0.001*0.02/B2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <f>0.1*A2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F12" si="0">D2+E2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f>E2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2-H2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <f>0.001*0.02/B2</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L2" s="1">
+        <f>2*0.025/B2+0.3*0.001/B2+0.5*0.001/B2</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M2" s="1">
+        <f>0.5*0.001/B2+2*0.025/B2</f>
+        <v>0.505</v>
+      </c>
+      <c r="N2" s="1">
+        <f>0.5*(H2*4+I2*9+J2+K2+L2+M2)*1.02</f>
+        <v>0.5168339999999999</v>
+      </c>
+      <c r="O2" s="1">
+        <f>EXP(-0.509*(SQRT(N2)/(1+SQRT(N2))-0.3*N2))</f>
+        <v>0.87462343214836502</v>
+      </c>
+      <c r="P2" s="1">
+        <f>EXP(-0.509*4*(SQRT(N2)/(1+SQRT(N2))-0.3*N2))</f>
+        <v>0.58517320768232173</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>EXP(-0.509*9*(SQRT(N2)/(1+SQRT(N2))-0.3*N2))</f>
+        <v>0.29949527535864184</v>
+      </c>
+      <c r="R2" s="2">
+        <f>P2/(O2*Q2)</f>
+        <v>2.2339494908391297</v>
+      </c>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2+0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B2+0.001</f>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.186</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D12" si="1">0.001*0.02/B3</f>
+        <v>1.9801980198019803E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E12" si="2">0.1*A3/B3</f>
+        <v>9.9009900990099011E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1881188118811881E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <f>D3*E3/C3</f>
+        <v>1.054081773555829E-6</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H12" si="3">$B$17*E3*D3/(1+$B$17*(E3+D3))</f>
+        <v>2.6683828440935015E-5</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I12" si="4">E3-H3</f>
+        <v>9.6341518146005512E-4</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J12" si="5">D3-H3</f>
+        <v>1.7133597353926301E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="6">0.001*0.02/B3</f>
+        <v>1.9801980198019803E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <f>2*0.025/B3+0.3*0.001/B3+0.5*0.001/B3</f>
+        <v>0.50297029702970297</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M12" si="7">0.5*0.001/B3+2*0.025/B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N12" si="8">0.5*(H3*4+I3*9+J3+K3+L3+M3)*1.02</f>
+        <v>0.51617973362358471</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O12" si="9">EXP(-0.509*(SQRT(N3)/(1+SQRT(N3))-0.3*N3))</f>
+        <v>0.87460465326637815</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P12" si="10">EXP(-0.509*4*(SQRT(N3)/(1+SQRT(N3))-0.3*N3))</f>
+        <v>0.58512295270721293</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q12" si="11">EXP(-0.509*9*(SQRT(N3)/(1+SQRT(N3))-0.3*N3))</f>
+        <v>0.2994374066473432</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R12" si="12">P3/(O3*Q3)</f>
+        <v>2.2342373008270084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A12" si="13">A3+0.001</f>
+        <v>2E-3</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B12" si="14">B3+0.001</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.158</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9607843137254901E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9607843137254902E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1568627450980391E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G12" si="15">D4*E4/C4</f>
+        <v>2.4333386866784437E-6</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6230954266081332E-5</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9145533594594089E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4984747710646769E-4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9607843137254901E-4</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L12" si="16">2*0.025/B4+0.3*0.001/B4+0.5*0.001/B4</f>
+        <v>0.49803921568627446</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.49509803921568624</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51555853327994572</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87458689774300269</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58507543936339046</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29938270064364902</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2345094663455609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9417475728155341E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9126213592233011E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1067961165048546E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="15"/>
+        <v>3.3664139611919798E-6</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1034667172697614E-5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8515866920506036E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>1.331400901088558E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9417475728155341E-4</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="16"/>
+        <v>0.49320388349514566</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.49029126213592233</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51496274848155832</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87456993678851647</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58503005496873284</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29933045105881273</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2347694884385789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="13"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8461538461538459E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0384615384615385E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="15"/>
+        <v>3.3773742941287725E-6</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2529611125691769E-5</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7736242350281542E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1977808118200054E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9230769230769231E-4</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="16"/>
+        <v>0.48846153846153839</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48557692307692302</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51438767477457081</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.8745536288352157</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58498642037502491</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29928022074035354</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2350195329019309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="13"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9047619047619048E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7619047619047615E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.952380952380952E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="15"/>
+        <v>3.9957245747050653E-6</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1627930721292878E-5</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>4.680276831183469E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>1.088482597548976E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9047619047619048E-4</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="16"/>
+        <v>0.48380952380952374</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48095238095238091</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51383021853199284</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87453788003223154</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58494428419616751</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29923171977908269</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2352610350790059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="13"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8867924528301886E-4</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6603773584905656E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8490566037735841E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="15"/>
+        <v>3.9999840000639986E-6</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8937168881866342E-5</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>5.571440189608699E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9742076401152516E-5</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8867924528301886E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="16"/>
+        <v>0.47924528301886787</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.47641509433962259</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51328822962171206</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.8745226245152653</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58490346998257436</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29918474463308237</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="12"/>
+        <v>2.235495001923502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="13"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10700000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8691588785046728E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5420560747663555E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7289719626168224E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7766180452441262E-6</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4877521282483467E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>6.447178553483872E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>9.2038366567983814E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8691588785046728E-4</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="16"/>
+        <v>0.47476635514018689</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4719626168224299</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51276014207459519</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.8745078137867599</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58486384778784872</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29913914536142977</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2357221745861993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="13"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518518E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4074074074074068E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5925925925925918E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="15"/>
+        <v>4.2866941015089157E-6</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9748803714747093E-5</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>7.30765860369266E-3</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>8.5436381470438083E-5</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8518518518518518E-4</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="16"/>
+        <v>0.47037037037037033</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46759259259259256</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51224476866063284</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87449341064512176</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58482531791494741</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29909480689333728</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="12"/>
+        <v>2.235943121356271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="13"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="14"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8348623853211009E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2568807339449546E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4403669724770654E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="15"/>
+        <v>4.4428855949554492E-6</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0377061475108442E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1531101191938699E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>7.9715623781025671E-5</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8348623853211009E-4</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="16"/>
+        <v>0.46605504587155955</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46330275229357792</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51174117751519199</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87447938553771276</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58478780115161644</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29905163777530946</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2361582934942614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="14"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8181818181818181E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2727272727272745E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="15"/>
+        <v>3.4579342300909441E-6</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.071074278406555E-4</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9838016630684366E-3</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>7.4710753977526309E-5</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818181E-4</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.46181818181818179</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45909090909090905</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="8"/>
+        <v>0.51124861490717122</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87446571427632835</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="10"/>
+        <v>0.58475123265366369</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="11"/>
+        <v>0.29900956312190852</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2363680602049247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.0620000000000002E-4</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.886E-6</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B15/B16</f>
+        <v>162.35418875927891</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>1000*(71.1-(-4.7+92.7))</f>
+        <v>-16900.000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B20">
+        <f>25+273.15</f>
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B21">
+        <v>8.3144626181532395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="B22">
+        <f>EXP(-B19/(B20*B21))</f>
+        <v>913.5911913129404</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f>H2+1</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <f t="shared" ref="A4:A12" si="0">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H13" si="1">H3+1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>